--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.127190722948839</v>
+        <v>0.9310122474908051</v>
       </c>
       <c r="D2">
-        <v>0.2597155235809336</v>
+        <v>0.3584111998068638</v>
       </c>
       <c r="E2">
         <v>0.5980019548059257</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>2.698754373827994</v>
+        <v>2.387288937183493</v>
       </c>
       <c r="D3">
-        <v>0.006983162862657988</v>
+        <v>0.0226774307765456</v>
       </c>
       <c r="E3">
         <v>0.5980019548059257</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.616296412262655</v>
+        <v>1.01172709995921</v>
       </c>
       <c r="D4">
-        <v>0.1060928408780308</v>
+        <v>0.3188147116121174</v>
       </c>
       <c r="E4">
         <v>0.5980019548059257</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>4.002734412255005</v>
+        <v>3.390954101638172</v>
       </c>
       <c r="D5">
-        <v>6.351407067772818E-05</v>
+        <v>0.001779768824629269</v>
       </c>
       <c r="E5">
         <v>0.5980019548059257</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.311974228830481</v>
+        <v>1.248828773388428</v>
       </c>
       <c r="D6">
-        <v>0.1895885942410396</v>
+        <v>0.2202581191770054</v>
       </c>
       <c r="E6">
         <v>0.5835862356790631</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.2988230264187164</v>
+        <v>0.3179953770968922</v>
       </c>
       <c r="D7">
-        <v>0.7650874030487156</v>
+        <v>0.7524334188045052</v>
       </c>
       <c r="E7">
         <v>0.5835862356790631</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.806986272948824</v>
+        <v>2.827373761711713</v>
       </c>
       <c r="D8">
-        <v>0.005019950844208365</v>
+        <v>0.007809069868069729</v>
       </c>
       <c r="E8">
         <v>0.5835862356790631</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.207104905819041</v>
+        <v>-0.9768400401535045</v>
       </c>
       <c r="D9">
-        <v>0.2274484056285355</v>
+        <v>0.3355479016353935</v>
       </c>
       <c r="E9">
         <v>0.5677467443096885</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.050341557110855</v>
+        <v>1.082125622388216</v>
       </c>
       <c r="D10">
-        <v>0.2936114746466756</v>
+        <v>0.2868120999653208</v>
       </c>
       <c r="E10">
         <v>0.5677467443096885</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>2.356618695516147</v>
+        <v>1.886639140527811</v>
       </c>
       <c r="D11">
-        <v>0.01848023502626761</v>
+        <v>0.06777275666478855</v>
       </c>
       <c r="E11">
         <v>0.580322974709481</v>
@@ -687,7 +687,7 @@
         <v>0.5569108207977537</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>200</v>
